--- a/Excel-Homework-Exercises-ANSWERS.xlsx
+++ b/Excel-Homework-Exercises-ANSWERS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Maven Analytics\Excel Maven\Udemy\Course 1 - Formulas &amp; Functions\Excel Files\Homework Exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GodSpeed/Documents/CodeWork/excelAdvancedFormulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EC0257C0-AD74-4CD3-A275-6F63B592945C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B311BF-B2EF-8040-803A-95586CD76B8A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="8868" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Array Functions" sheetId="26" r:id="rId12"/>
     <sheet name="Bonus Array Function" sheetId="24" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2060,9 +2060,16 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2312,76 +2319,76 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,23 +2398,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2420,60 +2427,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2494,16 +2501,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2513,7 +2520,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2524,47 +2531,47 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6921,19 +6928,19 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="2"/>
+    <col min="3" max="4" width="8.83203125" style="2"/>
     <col min="5" max="6" width="16" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>137</v>
       </c>
@@ -6953,7 +6960,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>42370</v>
       </c>
@@ -6975,7 +6982,7 @@
         <v>0.12328767123287671</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>42370</v>
       </c>
@@ -6997,7 +7004,7 @@
         <v>8.8757396449704137E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>42370</v>
       </c>
@@ -7019,7 +7026,7 @@
         <v>9.5477386934673364E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>42371</v>
       </c>
@@ -7041,7 +7048,7 @@
         <v>3.5587188612099648E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>42371</v>
       </c>
@@ -7063,7 +7070,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>42371</v>
       </c>
@@ -7085,7 +7092,7 @@
         <v>5.4151624548736461E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>42372</v>
       </c>
@@ -7107,7 +7114,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>42372</v>
       </c>
@@ -7129,7 +7136,7 @@
         <v>5.2863436123348019E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>42372</v>
       </c>
@@ -7151,7 +7158,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>42373</v>
       </c>
@@ -7173,7 +7180,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>42374</v>
       </c>
@@ -7195,7 +7202,7 @@
         <v>4.1322314049586778E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>42374</v>
       </c>
@@ -7217,7 +7224,7 @@
         <v>7.441860465116279E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>42374</v>
       </c>
@@ -7239,7 +7246,7 @@
         <v>6.5573770491803282E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>42374</v>
       </c>
@@ -7261,7 +7268,7 @@
         <v>7.2625698324022353E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>42374</v>
       </c>
@@ -7283,7 +7290,7 @@
         <v>5.0724637681159424E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>42375</v>
       </c>
@@ -7305,7 +7312,7 @@
         <v>0.15748031496062992</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>42375</v>
       </c>
@@ -7327,7 +7334,7 @@
         <v>6.3604240282685506E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>42375</v>
       </c>
@@ -7349,7 +7356,7 @@
         <v>0.15873015873015872</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>42376</v>
       </c>
@@ -7371,7 +7378,7 @@
         <v>7.2519083969465645E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>42376</v>
       </c>
@@ -7393,7 +7400,7 @@
         <v>4.878048780487805E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>42376</v>
       </c>
@@ -7415,7 +7422,7 @@
         <v>5.204460966542751E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>42377</v>
       </c>
@@ -7437,7 +7444,7 @@
         <v>3.6764705882352942E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>42377</v>
       </c>
@@ -7459,7 +7466,7 @@
         <v>5.3921568627450983E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>42377</v>
       </c>
@@ -7481,7 +7488,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>42377</v>
       </c>
@@ -7503,10 +7510,10 @@
         <v>7.2796934865900387E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
     </row>
   </sheetData>
@@ -7526,19 +7533,19 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>146</v>
       </c>
@@ -7546,25 +7553,25 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C3" s="53">
         <f ca="1">TODAY()</f>
-        <v>43317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C4" s="54">
         <f ca="1">NOW()</f>
-        <v>43317.627674537034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43379.893438310188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>149</v>
       </c>
@@ -7584,33 +7591,33 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="55">
         <f ca="1">YEAR(C3)</f>
         <v>2018</v>
       </c>
       <c r="C7" s="55">
         <f ca="1">MONTH(C3)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="55">
         <f ca="1">DAY(C3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="55">
         <f ca="1">HOUR(C4)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F7" s="55">
         <f ca="1">MINUTE(C4)</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G7" s="55">
         <f ca="1">SECOND(C4)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7619,57 +7626,57 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="56">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="53">
         <f ca="1">WORKDAY(C3,50)</f>
-        <v>43385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>155</v>
       </c>
       <c r="C12" s="57">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="53">
         <f ca="1">EOMONTH(C3,0)</f>
-        <v>43343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="53">
         <f ca="1">EOMONTH(C3,-1)+1</f>
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>158</v>
       </c>
@@ -7678,84 +7685,84 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="29">
         <v>42005</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="29">
         <v>42370</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="29">
         <v>42736</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="29">
         <v>43101</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="29">
         <v>43466</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="29">
         <v>43831</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="29">
         <v>44197</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="29">
         <v>44562</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="29">
         <v>44927</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="29">
         <v>45292</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="29">
         <v>45658</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="29">
         <v>46023</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="29"/>
     </row>
   </sheetData>
@@ -7775,17 +7782,17 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="46" customWidth="1"/>
-    <col min="4" max="5" width="14.88671875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="46" customWidth="1"/>
+    <col min="4" max="5" width="14.83203125" style="46" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
@@ -7808,7 +7815,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
         <v>41640</v>
       </c>
@@ -7833,7 +7840,7 @@
         <v>0.41492265696087355</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>41671</v>
       </c>
@@ -7858,7 +7865,7 @@
         <v>0.17524916943521596</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>41699</v>
       </c>
@@ -7884,7 +7891,7 @@
         <v>0.50411522633744854</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>41730</v>
       </c>
@@ -7910,7 +7917,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>41760</v>
       </c>
@@ -7936,7 +7943,7 @@
         <v>0.43443132380360472</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>41791</v>
       </c>
@@ -7962,7 +7969,7 @@
         <v>0.39156626506024095</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>41821</v>
       </c>
@@ -7988,7 +7995,7 @@
         <v>0.57631444614599281</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>41852</v>
       </c>
@@ -8014,7 +8021,7 @@
         <v>0.51498929336188437</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>41883</v>
       </c>
@@ -8040,7 +8047,7 @@
         <v>0.47848537005163511</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>41913</v>
       </c>
@@ -8066,7 +8073,7 @@
         <v>0.3377808988764045</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
         <v>41944</v>
       </c>
@@ -8092,7 +8099,7 @@
         <v>0.34983766233766234</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
         <v>41974</v>
       </c>
@@ -8118,7 +8125,7 @@
         <v>0.54775604142692746</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
         <v>42005</v>
       </c>
@@ -8144,7 +8151,7 @@
         <v>0.5993031358885017</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="25">
         <v>42036</v>
       </c>
@@ -8170,7 +8177,7 @@
         <v>0.59571045576407511</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>42064</v>
       </c>
@@ -8196,7 +8203,7 @@
         <v>0.51458670988654787</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>42095</v>
       </c>
@@ -8222,7 +8229,7 @@
         <v>0.40393151553582751</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>42125</v>
       </c>
@@ -8248,7 +8255,7 @@
         <v>0.51891074130105896</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>42156</v>
       </c>
@@ -8274,7 +8281,7 @@
         <v>0.57448377581120946</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>42186</v>
       </c>
@@ -8299,7 +8306,7 @@
         <v>0.47118463180362863</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
         <v>42217</v>
       </c>
@@ -8325,7 +8332,7 @@
         <v>0.60243407707910746</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>42248</v>
       </c>
@@ -8350,7 +8357,7 @@
         <v>0.36644364384971695</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>42278</v>
       </c>
@@ -8376,7 +8383,7 @@
         <v>0.54501385041551242</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
         <v>42309</v>
       </c>
@@ -8402,7 +8409,7 @@
         <v>0.4105827193569993</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
         <v>42339</v>
       </c>
@@ -8476,18 +8483,18 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
@@ -8504,7 +8511,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>231</v>
       </c>
@@ -8528,7 +8535,7 @@
         <v>25897</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>232</v>
       </c>
@@ -8545,7 +8552,7 @@
         <v>21279</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>233</v>
       </c>
@@ -8569,7 +8576,7 @@
         <v>15414</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>234</v>
       </c>
@@ -8586,7 +8593,7 @@
         <v>10990</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>235</v>
       </c>
@@ -8616,7 +8623,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>170</v>
       </c>
@@ -8636,7 +8643,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>236</v>
       </c>
@@ -8660,7 +8667,7 @@
         <v>140337</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>237</v>
       </c>
@@ -8677,7 +8684,7 @@
         <v>21973</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>238</v>
       </c>
@@ -8694,7 +8701,7 @@
         <v>18721</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>239</v>
       </c>
@@ -8711,7 +8718,7 @@
         <v>25897</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>240</v>
       </c>
@@ -8728,7 +8735,7 @@
         <v>21824</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>241</v>
       </c>
@@ -8745,7 +8752,7 @@
         <v>26697</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>242</v>
       </c>
@@ -8762,7 +8769,7 @@
         <v>28543</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>243</v>
       </c>
@@ -8779,7 +8786,7 @@
         <v>28682</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>244</v>
       </c>
@@ -8813,43 +8820,43 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="29" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="46" customWidth="1"/>
-    <col min="19" max="19" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="46" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="I1" s="83" t="s">
+      <c r="G1" s="88"/>
+      <c r="I1" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
@@ -8881,7 +8888,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>42370</v>
       </c>
@@ -8917,7 +8924,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>42371</v>
       </c>
@@ -8953,7 +8960,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>42372</v>
       </c>
@@ -8985,7 +8992,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>42373</v>
       </c>
@@ -9015,7 +9022,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>42374</v>
       </c>
@@ -9045,7 +9052,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>42375</v>
       </c>
@@ -9075,7 +9082,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>42376</v>
       </c>
@@ -9105,7 +9112,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>42377</v>
       </c>
@@ -9135,7 +9142,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>42378</v>
       </c>
@@ -9165,7 +9172,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>42379</v>
       </c>
@@ -9195,7 +9202,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>42380</v>
       </c>
@@ -9226,7 +9233,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>42381</v>
       </c>
@@ -9257,45 +9264,45 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="2"/>
       <c r="J15" s="29"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" s="2"/>
       <c r="J16" s="29"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H17" s="2"/>
       <c r="J17" s="29"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:19" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
+    <row r="18" spans="1:19" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-    </row>
-    <row r="19" spans="1:19" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+    </row>
+    <row r="19" spans="1:19" ht="7.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="77"/>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
@@ -9316,53 +9323,53 @@
       <c r="R19" s="77"/>
       <c r="S19" s="77"/>
     </row>
-    <row r="20" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
+    <row r="20" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-    </row>
-    <row r="21" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+    </row>
+    <row r="21" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-    </row>
-    <row r="22" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+    </row>
+    <row r="22" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="79" t="s">
         <v>257</v>
       </c>
@@ -9385,99 +9392,99 @@
       <c r="R22" s="80"/>
       <c r="S22" s="80"/>
     </row>
-    <row r="23" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
+    <row r="23" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-    </row>
-    <row r="24" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+    </row>
+    <row r="24" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-    </row>
-    <row r="25" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+    </row>
+    <row r="25" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-    </row>
-    <row r="26" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85" t="s">
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+    </row>
+    <row r="26" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-    </row>
-    <row r="27" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+    </row>
+    <row r="27" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="79" t="s">
         <v>259</v>
       </c>
@@ -9500,77 +9507,82 @@
       <c r="R27" s="80"/>
       <c r="S27" s="80"/>
     </row>
-    <row r="28" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87" t="s">
+    <row r="28" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-    </row>
-    <row r="29" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85" t="s">
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+    </row>
+    <row r="29" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-    </row>
-    <row r="30" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="85" t="s">
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+    </row>
+    <row r="30" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A26:S26"/>
     <mergeCell ref="A28:S28"/>
     <mergeCell ref="A29:S29"/>
     <mergeCell ref="A30:S30"/>
@@ -9579,11 +9591,6 @@
     <mergeCell ref="A23:S23"/>
     <mergeCell ref="A24:S24"/>
     <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A26:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9602,17 +9609,17 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="35" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="35" customWidth="1"/>
     <col min="4" max="4" width="14" style="35" customWidth="1"/>
     <col min="5" max="5" width="12" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="35" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>163</v>
       </c>
@@ -9635,7 +9642,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>167</v>
       </c>
@@ -9662,7 +9669,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>170</v>
       </c>
@@ -9689,7 +9696,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>171</v>
       </c>
@@ -9716,7 +9723,7 @@
         <v>Female Achiever</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>172</v>
       </c>
@@ -9743,7 +9750,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>173</v>
       </c>
@@ -9770,7 +9777,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>174</v>
       </c>
@@ -9797,7 +9804,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>175</v>
       </c>
@@ -9824,7 +9831,7 @@
         <v>Male Achiever</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>176</v>
       </c>
@@ -9851,7 +9858,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>177</v>
       </c>
@@ -9878,7 +9885,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>178</v>
       </c>
@@ -9905,7 +9912,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>179</v>
       </c>
@@ -9932,7 +9939,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>180</v>
       </c>
@@ -9959,7 +9966,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>181</v>
       </c>
@@ -9986,7 +9993,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>182</v>
       </c>
@@ -10013,7 +10020,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>183</v>
       </c>
@@ -10053,27 +10060,27 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>123</v>
       </c>
@@ -10093,7 +10100,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
@@ -10113,14 +10120,14 @@
         <v>128</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I2" s="11"/>
       <c r="M2" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>127</v>
       </c>
@@ -10142,7 +10149,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -10165,7 +10172,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>127</v>
       </c>
@@ -10183,10 +10190,10 @@
       </c>
       <c r="H5" s="51">
         <f>SUMIF(A:A,$H$2,D:D)</f>
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>127</v>
       </c>
@@ -10203,7 +10210,7 @@
         <v>25650</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -10229,7 +10236,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>127</v>
       </c>
@@ -10250,18 +10257,18 @@
       </c>
       <c r="H8" s="51">
         <f>SUMIFS($D:$D,$A:$A,$H$2,$C:$C,$G8)</f>
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="I8" s="64">
         <f>SUMIFS($E:$E,$A:$A,$H$2,$C:$C,$G8)</f>
-        <v>10015</v>
+        <v>34908</v>
       </c>
       <c r="J8" s="51">
         <f>COUNTIFS($A:$A,$H$2,$C:$C,$G8)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
@@ -10282,18 +10289,18 @@
       </c>
       <c r="H9" s="51">
         <f t="shared" ref="H9:H10" si="0">SUMIFS($D:$D,$A:$A,$H$2,$C:$C,$G9)</f>
-        <v>372</v>
+        <v>268</v>
       </c>
       <c r="I9" s="64">
         <f t="shared" ref="I9:I10" si="1">SUMIFS($E:$E,$A:$A,$H$2,$C:$C,$G9)</f>
-        <v>42628</v>
+        <v>29174</v>
       </c>
       <c r="J9" s="51">
         <f t="shared" ref="J9:J10" si="2">COUNTIFS($A:$A,$H$2,$C:$C,$G9)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>127</v>
       </c>
@@ -10314,18 +10321,18 @@
       </c>
       <c r="H10" s="51">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="I10" s="64">
         <f t="shared" si="1"/>
-        <v>6300</v>
+        <v>43071</v>
       </c>
       <c r="J10" s="51">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>129</v>
       </c>
@@ -10342,7 +10349,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>129</v>
       </c>
@@ -10359,7 +10366,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>129</v>
       </c>
@@ -10376,7 +10383,7 @@
         <v>21390</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -10393,7 +10400,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -10410,7 +10417,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>129</v>
       </c>
@@ -10427,7 +10434,7 @@
         <v>17850</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>129</v>
       </c>
@@ -10444,7 +10451,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>129</v>
       </c>
@@ -10461,7 +10468,7 @@
         <v>17907</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>129</v>
       </c>
@@ -10478,7 +10485,7 @@
         <v>12584</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>129</v>
       </c>
@@ -10495,7 +10502,7 @@
         <v>9282</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>130</v>
       </c>
@@ -10512,7 +10519,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>130</v>
       </c>
@@ -10529,7 +10536,7 @@
         <v>14484</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>130</v>
       </c>
@@ -10546,7 +10553,7 @@
         <v>11592</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>130</v>
       </c>
@@ -10563,7 +10570,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>130</v>
       </c>
@@ -10580,7 +10587,7 @@
         <v>16269</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>130</v>
       </c>
@@ -10597,7 +10604,7 @@
         <v>13524</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>130</v>
       </c>
@@ -10614,7 +10621,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>130</v>
       </c>
@@ -10631,7 +10638,7 @@
         <v>22780</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>130</v>
       </c>
@@ -10648,7 +10655,7 @@
         <v>20160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>130</v>
       </c>
@@ -10665,7 +10672,7 @@
         <v>14070</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
@@ -10682,7 +10689,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -10699,7 +10706,7 @@
         <v>14076</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>130</v>
       </c>
@@ -10716,7 +10723,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>130</v>
       </c>
@@ -10733,7 +10740,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>130</v>
       </c>
@@ -10750,7 +10757,7 @@
         <v>5969</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>130</v>
       </c>
@@ -10767,7 +10774,7 @@
         <v>9384</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
@@ -10784,7 +10791,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>130</v>
       </c>
@@ -10801,7 +10808,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>132</v>
       </c>
@@ -10818,7 +10825,7 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -10835,7 +10842,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>132</v>
       </c>
@@ -10852,7 +10859,7 @@
         <v>22860</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>132</v>
       </c>
@@ -10869,7 +10876,7 @@
         <v>25137</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>132</v>
       </c>
@@ -10886,7 +10893,7 @@
         <v>9752</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>132</v>
       </c>
@@ -10903,7 +10910,7 @@
         <v>14136</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>132</v>
       </c>
@@ -10920,7 +10927,7 @@
         <v>10098</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>132</v>
       </c>
@@ -10937,7 +10944,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
@@ -10954,7 +10961,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>132</v>
       </c>
@@ -10971,7 +10978,7 @@
         <v>10152</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>132</v>
       </c>
@@ -10988,7 +10995,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>132</v>
       </c>
@@ -11005,7 +11012,7 @@
         <v>16302</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -11022,7 +11029,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>132</v>
       </c>
@@ -11039,7 +11046,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>132</v>
       </c>
@@ -11056,7 +11063,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>132</v>
       </c>
@@ -11073,7 +11080,7 @@
         <v>12276</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>132</v>
       </c>
@@ -11090,7 +11097,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>132</v>
       </c>
@@ -11107,7 +11114,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>132</v>
       </c>
@@ -11124,7 +11131,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>132</v>
       </c>
@@ -11141,7 +11148,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>132</v>
       </c>
@@ -11158,7 +11165,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>132</v>
       </c>
@@ -11175,7 +11182,7 @@
         <v>8968</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>132</v>
       </c>
@@ -11192,7 +11199,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>132</v>
       </c>
@@ -11209,7 +11216,7 @@
         <v>7194</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
@@ -11226,7 +11233,7 @@
         <v>8468</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
@@ -11243,7 +11250,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>132</v>
       </c>
@@ -11260,7 +11267,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>132</v>
       </c>
@@ -11277,7 +11284,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -11294,7 +11301,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
@@ -11311,7 +11318,7 @@
         <v>6270</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>132</v>
       </c>
@@ -11328,7 +11335,7 @@
         <v>6350</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -11372,17 +11379,17 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="15" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>224</v>
       </c>
@@ -11405,7 +11412,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>B2&amp;C2</f>
         <v>Alabama2001</v>
@@ -11431,7 +11438,7 @@
         <v>24477</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
         <f t="shared" ref="A3:A66" si="0">B3&amp;C3</f>
         <v>Alaska2001</v>
@@ -11457,7 +11464,7 @@
         <v>31027</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Arizona2001</v>
@@ -11483,7 +11490,7 @@
         <v>25878</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Arkansas2001</v>
@@ -11509,7 +11516,7 @@
         <v>22750</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>California2001</v>
@@ -11535,7 +11542,7 @@
         <v>32655</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Colorado2001</v>
@@ -11561,7 +11568,7 @@
         <v>33455</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Connecticut2001</v>
@@ -11587,7 +11594,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>D.C.2001</v>
@@ -11613,7 +11620,7 @@
         <v>32166</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Delaware2001</v>
@@ -11639,7 +11646,7 @@
         <v>40539</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Florida2001</v>
@@ -11665,7 +11672,7 @@
         <v>29048</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Georgia2001</v>
@@ -11691,7 +11698,7 @@
         <v>28523</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Hawaii2001</v>
@@ -11717,7 +11724,7 @@
         <v>29034</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Idaho2001</v>
@@ -11743,7 +11750,7 @@
         <v>24506</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Illinois2001</v>
@@ -11769,7 +11776,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Indiana2001</v>
@@ -11795,7 +11802,7 @@
         <v>27522</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Iowa2001</v>
@@ -11821,7 +11828,7 @@
         <v>27225</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Kansas2001</v>
@@ -11847,7 +11854,7 @@
         <v>28432</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Kentucky2001</v>
@@ -11873,7 +11880,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Louisiana2001</v>
@@ -11899,7 +11906,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Maine2001</v>
@@ -11925,7 +11932,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Maryland2001</v>
@@ -11951,7 +11958,7 @@
         <v>35279</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Massachusetts2001</v>
@@ -11977,7 +11984,7 @@
         <v>38864</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Michigan2001</v>
@@ -12003,7 +12010,7 @@
         <v>29629</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Minnesota2001</v>
@@ -12029,7 +12036,7 @@
         <v>33059</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Mississippi2001</v>
@@ -12055,7 +12062,7 @@
         <v>21653</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Missouri2001</v>
@@ -12081,7 +12088,7 @@
         <v>28221</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Montana2001</v>
@@ -12107,7 +12114,7 @@
         <v>24044</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Nebraska2001</v>
@@ -12133,7 +12140,7 @@
         <v>28861</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Nevada2001</v>
@@ -12159,7 +12166,7 @@
         <v>30128</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>New Hampshire2001</v>
@@ -12185,7 +12192,7 @@
         <v>33969</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>New Jersey2001</v>
@@ -12211,7 +12218,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>New Mexico2001</v>
@@ -12237,7 +12244,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>New York2001</v>
@@ -12263,7 +12270,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>North Carolina2001</v>
@@ -12289,7 +12296,7 @@
         <v>27308</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>North Dakota2001</v>
@@ -12315,7 +12322,7 @@
         <v>25798</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Ohio2001</v>
@@ -12341,7 +12348,7 @@
         <v>28699</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Oklahoma2001</v>
@@ -12367,7 +12374,7 @@
         <v>24945</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Oregon2001</v>
@@ -12393,7 +12400,7 @@
         <v>28222</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Pennsylvania2001</v>
@@ -12419,7 +12426,7 @@
         <v>30752</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Rhode Island2001</v>
@@ -12445,7 +12452,7 @@
         <v>30256</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>South Carolina2001</v>
@@ -12471,7 +12478,7 @@
         <v>24840</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>South Dakota2001</v>
@@ -12497,7 +12504,7 @@
         <v>26566</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tennessee2001</v>
@@ -12523,7 +12530,7 @@
         <v>26808</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Texas2001</v>
@@ -12549,7 +12556,7 @@
         <v>28472</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Utah2001</v>
@@ -12575,7 +12582,7 @@
         <v>24033</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Vermont2001</v>
@@ -12601,7 +12608,7 @@
         <v>28756</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Virginia2001</v>
@@ -12627,7 +12634,7 @@
         <v>32338</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Washington2001</v>
@@ -12653,7 +12660,7 @@
         <v>31976</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>West Virginia2001</v>
@@ -12679,7 +12686,7 @@
         <v>22862</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Wisconsin2001</v>
@@ -12705,7 +12712,7 @@
         <v>29196</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Wyoming2001</v>
@@ -12731,7 +12738,7 @@
         <v>29587</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Alabama2002</v>
@@ -12757,7 +12764,7 @@
         <v>25128</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Alaska2002</v>
@@ -12783,7 +12790,7 @@
         <v>32151</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Arizona2002</v>
@@ -12809,7 +12816,7 @@
         <v>26183</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Arkansas2002</v>
@@ -12835,7 +12842,7 @@
         <v>23512</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>California2002</v>
@@ -12861,7 +12868,7 @@
         <v>32996</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Colorado2002</v>
@@ -12887,7 +12894,7 @@
         <v>33276</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Connecticut2002</v>
@@ -12913,7 +12920,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>D.C.2002</v>
@@ -12939,7 +12946,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Delaware2002</v>
@@ -12965,7 +12972,7 @@
         <v>42120</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Florida2002</v>
@@ -12991,7 +12998,7 @@
         <v>29596</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Georgia2002</v>
@@ -13017,7 +13024,7 @@
         <v>28821</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Hawaii2002</v>
@@ -13043,7 +13050,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Idaho2002</v>
@@ -13069,7 +13076,7 @@
         <v>25057</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Illinois2002</v>
@@ -13095,7 +13102,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
         <f t="shared" ref="A67:A130" si="1">B67&amp;C67</f>
         <v>Indiana2002</v>
@@ -13121,7 +13128,7 @@
         <v>28240</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Iowa2002</v>
@@ -13147,7 +13154,7 @@
         <v>28280</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Kansas2002</v>
@@ -13173,7 +13180,7 @@
         <v>29141</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Kentucky2002</v>
@@ -13199,7 +13206,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Louisiana2002</v>
@@ -13225,7 +13232,7 @@
         <v>25446</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Maine2002</v>
@@ -13251,7 +13258,7 @@
         <v>27744</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Maryland2002</v>
@@ -13277,7 +13284,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Massachusetts2002</v>
@@ -13303,7 +13310,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Michigan2002</v>
@@ -13329,7 +13336,7 @@
         <v>30296</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Minnesota2002</v>
@@ -13355,7 +13362,7 @@
         <v>34071</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Mississippi2002</v>
@@ -13381,7 +13388,7 @@
         <v>22372</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Missouri2002</v>
@@ -13407,7 +13414,7 @@
         <v>28936</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Montana2002</v>
@@ -13433,7 +13440,7 @@
         <v>25020</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Nebraska2002</v>
@@ -13459,7 +13466,7 @@
         <v>29771</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Nevada2002</v>
@@ -13485,7 +13492,7 @@
         <v>30180</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
         <f t="shared" si="1"/>
         <v>New Hampshire2002</v>
@@ -13511,7 +13518,7 @@
         <v>34334</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
         <f t="shared" si="1"/>
         <v>New Jersey2002</v>
@@ -13537,7 +13544,7 @@
         <v>39453</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
         <f t="shared" si="1"/>
         <v>New Mexico2002</v>
@@ -13563,7 +13570,7 @@
         <v>23941</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
         <f t="shared" si="1"/>
         <v>New York2002</v>
@@ -13589,7 +13596,7 @@
         <v>36043</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>North Carolina2002</v>
@@ -13615,7 +13622,7 @@
         <v>27711</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
         <f t="shared" si="1"/>
         <v>North Dakota2002</v>
@@ -13641,7 +13648,7 @@
         <v>26982</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Ohio2002</v>
@@ -13667,7 +13674,7 @@
         <v>29405</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Oklahoma2002</v>
@@ -13693,7 +13700,7 @@
         <v>25575</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Oregon2002</v>
@@ -13719,7 +13726,7 @@
         <v>28731</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Pennsylvania2002</v>
@@ -13745,7 +13752,7 @@
         <v>31727</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Rhode Island2002</v>
@@ -13771,7 +13778,7 @@
         <v>31319</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="str">
         <f t="shared" si="1"/>
         <v>South Carolina2002</v>
@@ -13797,7 +13804,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
         <f t="shared" si="1"/>
         <v>South Dakota2002</v>
@@ -13823,7 +13830,7 @@
         <v>26894</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Tennessee2002</v>
@@ -13849,7 +13856,7 @@
         <v>27671</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Texas2002</v>
@@ -13875,7 +13882,7 @@
         <v>28551</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Utah2002</v>
@@ -13901,7 +13908,7 @@
         <v>24306</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Vermont2002</v>
@@ -13927,7 +13934,7 @@
         <v>29567</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Virginia2002</v>
@@ -13953,7 +13960,7 @@
         <v>32922</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Washington2002</v>
@@ -13979,7 +13986,7 @@
         <v>32677</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
         <f t="shared" si="1"/>
         <v>West Virginia2002</v>
@@ -14005,7 +14012,7 @@
         <v>23688</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Wisconsin2002</v>
@@ -14031,7 +14038,7 @@
         <v>29923</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Wyoming2002</v>
@@ -14057,7 +14064,7 @@
         <v>30578</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Alabama2003</v>
@@ -14083,7 +14090,7 @@
         <v>26338</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Alaska2003</v>
@@ -14109,7 +14116,7 @@
         <v>33568</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Arizona2003</v>
@@ -14135,7 +14142,7 @@
         <v>26838</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Arkansas2003</v>
@@ -14161,7 +14168,7 @@
         <v>24289</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
         <f t="shared" si="1"/>
         <v>California2003</v>
@@ -14187,7 +14194,7 @@
         <v>33749</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Colorado2003</v>
@@ -14213,7 +14220,7 @@
         <v>34283</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Connecticut2003</v>
@@ -14239,7 +14246,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
         <f t="shared" si="1"/>
         <v>D.C.2003</v>
@@ -14265,7 +14272,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Delaware2003</v>
@@ -14291,7 +14298,7 @@
         <v>48342</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Florida2003</v>
@@ -14317,7 +14324,7 @@
         <v>30446</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Georgia2003</v>
@@ -14343,7 +14350,7 @@
         <v>29442</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Hawaii2003</v>
@@ -14369,7 +14376,7 @@
         <v>30913</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Idaho2003</v>
@@ -14395,7 +14402,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Illinois2003</v>
@@ -14421,7 +14428,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Indiana2003</v>
@@ -14447,7 +14454,7 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Iowa2003</v>
@@ -14473,7 +14480,7 @@
         <v>29043</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Kansas2003</v>
@@ -14499,7 +14506,7 @@
         <v>29935</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Kentucky2003</v>
@@ -14525,7 +14532,7 @@
         <v>26252</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Louisiana2003</v>
@@ -14551,7 +14558,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Maine2003</v>
@@ -14577,7 +14584,7 @@
         <v>28831</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Maryland2003</v>
@@ -14603,7 +14610,7 @@
         <v>37331</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Massachusetts2003</v>
@@ -14629,7 +14636,7 @@
         <v>39815</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Michigan2003</v>
@@ -14655,7 +14662,7 @@
         <v>30439</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Minnesota2003</v>
@@ -14681,7 +14688,7 @@
         <v>34443</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Mississippi2003</v>
@@ -14707,7 +14714,7 @@
         <v>23448</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Missouri2003</v>
@@ -14733,7 +14740,7 @@
         <v>29252</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Montana2003</v>
@@ -14759,7 +14766,7 @@
         <v>25920</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
         <f t="shared" ref="A131:A194" si="2">B131&amp;C131</f>
         <v>Nebraska2003</v>
@@ -14785,7 +14792,7 @@
         <v>30758</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Nevada2003</v>
@@ -14811,7 +14818,7 @@
         <v>31266</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Hampshire2003</v>
@@ -14837,7 +14844,7 @@
         <v>34702</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Jersey2003</v>
@@ -14863,7 +14870,7 @@
         <v>40427</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Mexico2003</v>
@@ -14889,7 +14896,7 @@
         <v>25541</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New York2003</v>
@@ -14915,7 +14922,7 @@
         <v>36574</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
         <f t="shared" si="2"/>
         <v>North Carolina2003</v>
@@ -14941,7 +14948,7 @@
         <v>28235</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
         <f t="shared" si="2"/>
         <v>North Dakota2003</v>
@@ -14967,7 +14974,7 @@
         <v>29204</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Ohio2003</v>
@@ -14993,7 +15000,7 @@
         <v>29944</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Oklahoma2003</v>
@@ -15019,7 +15026,7 @@
         <v>26656</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Oregon2003</v>
@@ -15045,7 +15052,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Pennsylvania2003</v>
@@ -15071,7 +15078,7 @@
         <v>31998</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Rhode Island2003</v>
@@ -15097,7 +15104,7 @@
         <v>31916</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
         <f t="shared" si="2"/>
         <v>South Carolina2003</v>
@@ -15123,7 +15130,7 @@
         <v>26132</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
         <f t="shared" si="2"/>
         <v>South Dakota2003</v>
@@ -15149,7 +15156,7 @@
         <v>29234</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Tennessee2003</v>
@@ -15175,7 +15182,7 @@
         <v>28455</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Texas2003</v>
@@ -15201,7 +15208,7 @@
         <v>29372</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Utah2003</v>
@@ -15227,7 +15234,7 @@
         <v>24977</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Vermont2003</v>
@@ -15253,7 +15260,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Virginia2003</v>
@@ -15279,7 +15286,7 @@
         <v>33671</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Washington2003</v>
@@ -15305,7 +15312,7 @@
         <v>33332</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
         <f t="shared" si="2"/>
         <v>West Virginia2003</v>
@@ -15331,7 +15338,7 @@
         <v>24379</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Wisconsin2003</v>
@@ -15357,7 +15364,7 @@
         <v>30898</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Wyoming2003</v>
@@ -15383,7 +15390,7 @@
         <v>32808</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Alabama2004</v>
@@ -15409,7 +15416,7 @@
         <v>29136</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Alaska2004</v>
@@ -15435,7 +15442,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Arizona2004</v>
@@ -15461,7 +15468,7 @@
         <v>30267</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Arkansas2004</v>
@@ -15487,7 +15494,7 @@
         <v>26874</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
         <f t="shared" si="2"/>
         <v>California2004</v>
@@ -15513,7 +15520,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Colorado2004</v>
@@ -15539,7 +15546,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Connecticut2004</v>
@@ -15565,7 +15572,7 @@
         <v>47819</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="str">
         <f t="shared" si="2"/>
         <v>D.C.2004</v>
@@ -15591,7 +15598,7 @@
         <v>37065</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Delaware2004</v>
@@ -15617,7 +15624,7 @@
         <v>54985</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Florida2004</v>
@@ -15643,7 +15650,7 @@
         <v>33219</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Georgia2004</v>
@@ -15669,7 +15676,7 @@
         <v>31121</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Hawaii2004</v>
@@ -15695,7 +15702,7 @@
         <v>34539</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Idaho2004</v>
@@ -15721,7 +15728,7 @@
         <v>28158</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Illinois2004</v>
@@ -15747,7 +15754,7 @@
         <v>36120</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Indiana2004</v>
@@ -15773,7 +15780,7 @@
         <v>31276</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Iowa2004</v>
@@ -15799,7 +15806,7 @@
         <v>32315</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Kansas2004</v>
@@ -15825,7 +15832,7 @@
         <v>32836</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Kentucky2004</v>
@@ -15851,7 +15858,7 @@
         <v>28513</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Louisiana2004</v>
@@ -15877,7 +15884,7 @@
         <v>24820</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Maine2004</v>
@@ -15903,7 +15910,7 @@
         <v>31252</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Maryland2004</v>
@@ -15929,7 +15936,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Massachusetts2004</v>
@@ -15955,7 +15962,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Michigan2004</v>
@@ -15981,7 +15988,7 @@
         <v>33116</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Minnesota2004</v>
@@ -16007,7 +16014,7 @@
         <v>37373</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Mississippi2004</v>
@@ -16033,7 +16040,7 @@
         <v>25318</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Missouri2004</v>
@@ -16059,7 +16066,7 @@
         <v>31899</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Montana2004</v>
@@ -16085,7 +16092,7 @@
         <v>29387</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Nebraska2004</v>
@@ -16111,7 +16118,7 @@
         <v>33616</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Nevada2004</v>
@@ -16137,7 +16144,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Hampshire2004</v>
@@ -16163,7 +16170,7 @@
         <v>38408</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Jersey2004</v>
@@ -16189,7 +16196,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New Mexico2004</v>
@@ -16215,7 +16222,7 @@
         <v>27644</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="str">
         <f t="shared" si="2"/>
         <v>New York2004</v>
@@ -16241,7 +16248,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="str">
         <f t="shared" si="2"/>
         <v>North Carolina2004</v>
@@ -16267,7 +16274,7 @@
         <v>30553</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="str">
         <f t="shared" si="2"/>
         <v>North Dakota2004</v>
@@ -16293,7 +16300,7 @@
         <v>31395</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Ohio2004</v>
@@ -16319,7 +16326,7 @@
         <v>32478</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Oklahoma2004</v>
@@ -16345,7 +16352,7 @@
         <v>29330</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Oregon2004</v>
@@ -16371,7 +16378,7 @@
         <v>32103</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Pennsylvania2004</v>
@@ -16397,7 +16404,7 @@
         <v>34897</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Rhode Island2004</v>
@@ -16423,7 +16430,7 @@
         <v>36153</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="str">
         <f t="shared" ref="A195:A205" si="3">B195&amp;C195</f>
         <v>South Carolina2004</v>
@@ -16449,7 +16456,7 @@
         <v>28352</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="str">
         <f t="shared" si="3"/>
         <v>South Dakota2004</v>
@@ -16475,7 +16482,7 @@
         <v>31614</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Tennessee2004</v>
@@ -16501,7 +16508,7 @@
         <v>31107</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Texas2004</v>
@@ -16527,7 +16534,7 @@
         <v>32462</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Utah2004</v>
@@ -16553,7 +16560,7 @@
         <v>NO INCOME DATA</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Vermont2004</v>
@@ -16579,7 +16586,7 @@
         <v>33327</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Virginia2004</v>
@@ -16605,7 +16612,7 @@
         <v>38390</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Washington2004</v>
@@ -16631,7 +16638,7 @@
         <v>35409</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="str">
         <f t="shared" si="3"/>
         <v>West Virginia2004</v>
@@ -16657,7 +16664,7 @@
         <v>27215</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Wisconsin2004</v>
@@ -16683,7 +16690,7 @@
         <v>33565</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Wyoming2004</v>
@@ -16731,13 +16738,13 @@
       <selection activeCell="J29" sqref="J28:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -16745,7 +16752,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -16753,7 +16760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -16761,7 +16768,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -16769,7 +16776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -16777,7 +16784,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -16785,7 +16792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -16793,7 +16800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -16801,7 +16808,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -16809,7 +16816,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -16817,7 +16824,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -16825,7 +16832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -16833,7 +16840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -16841,7 +16848,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -16849,7 +16856,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -16857,7 +16864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -16865,7 +16872,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -16873,7 +16880,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -16881,7 +16888,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -16889,7 +16896,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -16897,7 +16904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -16905,7 +16912,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -16913,7 +16920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -16921,7 +16928,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -16929,7 +16936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -16937,7 +16944,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -16945,7 +16952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -16953,7 +16960,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -16961,7 +16968,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -16969,7 +16976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -16977,7 +16984,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -16985,7 +16992,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -16993,7 +17000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -17001,7 +17008,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -17009,7 +17016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -17017,7 +17024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -17025,7 +17032,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -17033,7 +17040,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -17041,7 +17048,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -17049,7 +17056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -17057,7 +17064,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -17065,7 +17072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -17073,7 +17080,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -17081,7 +17088,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -17089,7 +17096,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -17097,7 +17104,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -17105,7 +17112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -17113,7 +17120,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -17121,7 +17128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -17129,7 +17136,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -17137,7 +17144,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -17145,7 +17152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -17174,14 +17181,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>224</v>
       </c>
@@ -17195,7 +17202,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>B2&amp;C2</f>
         <v>Alabama2001</v>
@@ -17210,7 +17217,7 @@
         <v>24477</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">B3&amp;C3</f>
         <v>Alaska2001</v>
@@ -17225,7 +17232,7 @@
         <v>31027</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Arizona2001</v>
@@ -17240,7 +17247,7 @@
         <v>25878</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Arkansas2001</v>
@@ -17255,7 +17262,7 @@
         <v>22750</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>California2001</v>
@@ -17270,7 +17277,7 @@
         <v>32655</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Colorado2001</v>
@@ -17285,7 +17292,7 @@
         <v>33455</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>D.C.2001</v>
@@ -17300,7 +17307,7 @@
         <v>32166</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Delaware2001</v>
@@ -17315,7 +17322,7 @@
         <v>40539</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Florida2001</v>
@@ -17330,7 +17337,7 @@
         <v>29048</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Georgia2001</v>
@@ -17345,7 +17352,7 @@
         <v>28523</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Hawaii2001</v>
@@ -17360,7 +17367,7 @@
         <v>29034</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Idaho2001</v>
@@ -17375,7 +17382,7 @@
         <v>24506</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Indiana2001</v>
@@ -17390,7 +17397,7 @@
         <v>27522</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Iowa2001</v>
@@ -17405,7 +17412,7 @@
         <v>27225</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Kansas2001</v>
@@ -17420,7 +17427,7 @@
         <v>28432</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Maryland2001</v>
@@ -17435,7 +17442,7 @@
         <v>35279</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Massachusetts2001</v>
@@ -17450,7 +17457,7 @@
         <v>38864</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Michigan2001</v>
@@ -17465,7 +17472,7 @@
         <v>29629</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Minnesota2001</v>
@@ -17480,7 +17487,7 @@
         <v>33059</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Mississippi2001</v>
@@ -17495,7 +17502,7 @@
         <v>21653</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Missouri2001</v>
@@ -17510,7 +17517,7 @@
         <v>28221</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Montana2001</v>
@@ -17525,7 +17532,7 @@
         <v>24044</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Nebraska2001</v>
@@ -17540,7 +17547,7 @@
         <v>28861</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Nevada2001</v>
@@ -17555,7 +17562,7 @@
         <v>30128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>New Hampshire2001</v>
@@ -17570,7 +17577,7 @@
         <v>33969</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>New Jersey2001</v>
@@ -17585,7 +17592,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>New Mexico2001</v>
@@ -17600,7 +17607,7 @@
         <v>23081</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>New York2001</v>
@@ -17615,7 +17622,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>North Carolina2001</v>
@@ -17630,7 +17637,7 @@
         <v>27308</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>North Dakota2001</v>
@@ -17645,7 +17652,7 @@
         <v>25798</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Ohio2001</v>
@@ -17660,7 +17667,7 @@
         <v>28699</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Oklahoma2001</v>
@@ -17675,7 +17682,7 @@
         <v>24945</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Oregon2001</v>
@@ -17690,7 +17697,7 @@
         <v>28222</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Pennsylvania2001</v>
@@ -17705,7 +17712,7 @@
         <v>30752</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Rhode Island2001</v>
@@ -17720,7 +17727,7 @@
         <v>30256</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>South Carolina2001</v>
@@ -17735,7 +17742,7 @@
         <v>24840</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>South Dakota2001</v>
@@ -17750,7 +17757,7 @@
         <v>26566</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Tennessee2001</v>
@@ -17765,7 +17772,7 @@
         <v>26808</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Texas2001</v>
@@ -17780,7 +17787,7 @@
         <v>28472</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Utah2001</v>
@@ -17795,7 +17802,7 @@
         <v>24033</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Vermont2001</v>
@@ -17810,7 +17817,7 @@
         <v>28756</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Virginia2001</v>
@@ -17825,7 +17832,7 @@
         <v>32338</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Washington2001</v>
@@ -17840,7 +17847,7 @@
         <v>31976</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>West Virginia2001</v>
@@ -17855,7 +17862,7 @@
         <v>22862</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Wisconsin2001</v>
@@ -17870,7 +17877,7 @@
         <v>29196</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Wyoming2001</v>
@@ -17885,7 +17892,7 @@
         <v>29587</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Alabama2002</v>
@@ -17900,7 +17907,7 @@
         <v>25128</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Alaska2002</v>
@@ -17915,7 +17922,7 @@
         <v>32151</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Arizona2002</v>
@@ -17930,7 +17937,7 @@
         <v>26183</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Arkansas2002</v>
@@ -17945,7 +17952,7 @@
         <v>23512</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>California2002</v>
@@ -17960,7 +17967,7 @@
         <v>32996</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Colorado2002</v>
@@ -17975,7 +17982,7 @@
         <v>33276</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Connecticut2002</v>
@@ -17990,7 +17997,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Delaware2002</v>
@@ -18005,7 +18012,7 @@
         <v>42120</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Florida2002</v>
@@ -18020,7 +18027,7 @@
         <v>29596</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Georgia2002</v>
@@ -18035,7 +18042,7 @@
         <v>28821</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Hawaii2002</v>
@@ -18050,7 +18057,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Idaho2002</v>
@@ -18065,7 +18072,7 @@
         <v>25057</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Illinois2002</v>
@@ -18080,7 +18087,7 @@
         <v>33404</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Indiana2002</v>
@@ -18095,7 +18102,7 @@
         <v>28240</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Iowa2002</v>
@@ -18110,7 +18117,7 @@
         <v>28280</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Kansas2002</v>
@@ -18125,7 +18132,7 @@
         <v>29141</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Louisiana2002</v>
@@ -18140,7 +18147,7 @@
         <v>25446</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Maine2002</v>
@@ -18155,7 +18162,7 @@
         <v>27744</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Massachusetts2002</v>
@@ -18170,7 +18177,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="1">B67&amp;C67</f>
         <v>Michigan2002</v>
@@ -18185,7 +18192,7 @@
         <v>30296</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>Minnesota2002</v>
@@ -18200,7 +18207,7 @@
         <v>34071</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Mississippi2002</v>
@@ -18215,7 +18222,7 @@
         <v>22372</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Missouri2002</v>
@@ -18230,7 +18237,7 @@
         <v>28936</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Montana2002</v>
@@ -18245,7 +18252,7 @@
         <v>25020</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Nebraska2002</v>
@@ -18260,7 +18267,7 @@
         <v>29771</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Nevada2002</v>
@@ -18275,7 +18282,7 @@
         <v>30180</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>New Hampshire2002</v>
@@ -18290,7 +18297,7 @@
         <v>34334</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>New Jersey2002</v>
@@ -18305,7 +18312,7 @@
         <v>39453</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>New Mexico2002</v>
@@ -18320,7 +18327,7 @@
         <v>23941</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>New York2002</v>
@@ -18335,7 +18342,7 @@
         <v>36043</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>North Carolina2002</v>
@@ -18350,7 +18357,7 @@
         <v>27711</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>North Dakota2002</v>
@@ -18365,7 +18372,7 @@
         <v>26982</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>Ohio2002</v>
@@ -18380,7 +18387,7 @@
         <v>29405</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>Oklahoma2002</v>
@@ -18395,7 +18402,7 @@
         <v>25575</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>Oregon2002</v>
@@ -18410,7 +18417,7 @@
         <v>28731</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>Pennsylvania2002</v>
@@ -18425,7 +18432,7 @@
         <v>31727</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>Rhode Island2002</v>
@@ -18440,7 +18447,7 @@
         <v>31319</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>South Carolina2002</v>
@@ -18455,7 +18462,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>South Dakota2002</v>
@@ -18470,7 +18477,7 @@
         <v>26894</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>Tennessee2002</v>
@@ -18485,7 +18492,7 @@
         <v>27671</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>Texas2002</v>
@@ -18500,7 +18507,7 @@
         <v>28551</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>Utah2002</v>
@@ -18515,7 +18522,7 @@
         <v>24306</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>Vermont2002</v>
@@ -18530,7 +18537,7 @@
         <v>29567</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>Virginia2002</v>
@@ -18545,7 +18552,7 @@
         <v>32922</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>Washington2002</v>
@@ -18560,7 +18567,7 @@
         <v>32677</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>West Virginia2002</v>
@@ -18575,7 +18582,7 @@
         <v>23688</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>Wisconsin2002</v>
@@ -18590,7 +18597,7 @@
         <v>29923</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>Wyoming2002</v>
@@ -18605,7 +18612,7 @@
         <v>30578</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>Alabama2003</v>
@@ -18620,7 +18627,7 @@
         <v>26338</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>Alaska2003</v>
@@ -18635,7 +18642,7 @@
         <v>33568</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>Arizona2003</v>
@@ -18650,7 +18657,7 @@
         <v>26838</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>Arkansas2003</v>
@@ -18665,7 +18672,7 @@
         <v>24289</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>California2003</v>
@@ -18680,7 +18687,7 @@
         <v>33749</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>Colorado2003</v>
@@ -18695,7 +18702,7 @@
         <v>34283</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>Connecticut2003</v>
@@ -18710,7 +18717,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>Delaware2003</v>
@@ -18725,7 +18732,7 @@
         <v>48342</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>Florida2003</v>
@@ -18740,7 +18747,7 @@
         <v>30446</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>Georgia2003</v>
@@ -18755,7 +18762,7 @@
         <v>29442</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>Hawaii2003</v>
@@ -18770,7 +18777,7 @@
         <v>30913</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>Indiana2003</v>
@@ -18785,7 +18792,7 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>Iowa2003</v>
@@ -18800,7 +18807,7 @@
         <v>29043</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>Kansas2003</v>
@@ -18815,7 +18822,7 @@
         <v>29935</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>Kentucky2003</v>
@@ -18830,7 +18837,7 @@
         <v>26252</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>Louisiana2003</v>
@@ -18845,7 +18852,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>Maine2003</v>
@@ -18860,7 +18867,7 @@
         <v>28831</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>Maryland2003</v>
@@ -18875,7 +18882,7 @@
         <v>37331</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>Massachusetts2003</v>
@@ -18890,7 +18897,7 @@
         <v>39815</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>Michigan2003</v>
@@ -18905,7 +18912,7 @@
         <v>30439</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>Minnesota2003</v>
@@ -18920,7 +18927,7 @@
         <v>34443</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>Mississippi2003</v>
@@ -18935,7 +18942,7 @@
         <v>23448</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>Missouri2003</v>
@@ -18950,7 +18957,7 @@
         <v>29252</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>Montana2003</v>
@@ -18965,7 +18972,7 @@
         <v>25920</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>Nebraska2003</v>
@@ -18980,7 +18987,7 @@
         <v>30758</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>Nevada2003</v>
@@ -18995,7 +19002,7 @@
         <v>31266</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>New Hampshire2003</v>
@@ -19010,7 +19017,7 @@
         <v>34702</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>New Jersey2003</v>
@@ -19025,7 +19032,7 @@
         <v>40427</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>New Mexico2003</v>
@@ -19040,7 +19047,7 @@
         <v>25541</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>New York2003</v>
@@ -19055,7 +19062,7 @@
         <v>36574</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>North Carolina2003</v>
@@ -19070,7 +19077,7 @@
         <v>28235</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>North Dakota2003</v>
@@ -19085,7 +19092,7 @@
         <v>29204</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>Ohio2003</v>
@@ -19100,7 +19107,7 @@
         <v>29944</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>Oklahoma2003</v>
@@ -19115,7 +19122,7 @@
         <v>26656</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>Oregon2003</v>
@@ -19130,7 +19137,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A190" si="2">B131&amp;C131</f>
         <v>Pennsylvania2003</v>
@@ -19145,7 +19152,7 @@
         <v>31998</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>Rhode Island2003</v>
@@ -19160,7 +19167,7 @@
         <v>31916</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>South Carolina2003</v>
@@ -19175,7 +19182,7 @@
         <v>26132</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>South Dakota2003</v>
@@ -19190,7 +19197,7 @@
         <v>29234</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>Tennessee2003</v>
@@ -19205,7 +19212,7 @@
         <v>28455</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>Texas2003</v>
@@ -19220,7 +19227,7 @@
         <v>29372</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>Utah2003</v>
@@ -19235,7 +19242,7 @@
         <v>24977</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>Vermont2003</v>
@@ -19250,7 +19257,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>Virginia2003</v>
@@ -19265,7 +19272,7 @@
         <v>33671</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>Washington2003</v>
@@ -19280,7 +19287,7 @@
         <v>33332</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>West Virginia2003</v>
@@ -19295,7 +19302,7 @@
         <v>24379</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>Wisconsin2003</v>
@@ -19310,7 +19317,7 @@
         <v>30898</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>Wyoming2003</v>
@@ -19325,7 +19332,7 @@
         <v>32808</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>Alabama2004</v>
@@ -19340,7 +19347,7 @@
         <v>29136</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>Alaska2004</v>
@@ -19355,7 +19362,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>Arizona2004</v>
@@ -19370,7 +19377,7 @@
         <v>30267</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>Arkansas2004</v>
@@ -19385,7 +19392,7 @@
         <v>26874</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>California2004</v>
@@ -19400,7 +19407,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>Colorado2004</v>
@@ -19415,7 +19422,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>Connecticut2004</v>
@@ -19430,7 +19437,7 @@
         <v>47819</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>D.C.2004</v>
@@ -19445,7 +19452,7 @@
         <v>37065</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>Delaware2004</v>
@@ -19460,7 +19467,7 @@
         <v>54985</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>Florida2004</v>
@@ -19475,7 +19482,7 @@
         <v>33219</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>Georgia2004</v>
@@ -19490,7 +19497,7 @@
         <v>31121</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>Hawaii2004</v>
@@ -19505,7 +19512,7 @@
         <v>34539</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>Idaho2004</v>
@@ -19520,7 +19527,7 @@
         <v>28158</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>Illinois2004</v>
@@ -19535,7 +19542,7 @@
         <v>36120</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>Indiana2004</v>
@@ -19550,7 +19557,7 @@
         <v>31276</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>Iowa2004</v>
@@ -19565,7 +19572,7 @@
         <v>32315</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>Kansas2004</v>
@@ -19580,7 +19587,7 @@
         <v>32836</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>Kentucky2004</v>
@@ -19595,7 +19602,7 @@
         <v>28513</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>Louisiana2004</v>
@@ -19610,7 +19617,7 @@
         <v>24820</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>Maine2004</v>
@@ -19625,7 +19632,7 @@
         <v>31252</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>Maryland2004</v>
@@ -19640,7 +19647,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>Massachusetts2004</v>
@@ -19655,7 +19662,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>Michigan2004</v>
@@ -19670,7 +19677,7 @@
         <v>33116</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>Minnesota2004</v>
@@ -19685,7 +19692,7 @@
         <v>37373</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>Mississippi2004</v>
@@ -19700,7 +19707,7 @@
         <v>25318</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>Missouri2004</v>
@@ -19715,7 +19722,7 @@
         <v>31899</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>Montana2004</v>
@@ -19730,7 +19737,7 @@
         <v>29387</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>Nebraska2004</v>
@@ -19745,7 +19752,7 @@
         <v>33616</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>New Hampshire2004</v>
@@ -19760,7 +19767,7 @@
         <v>38408</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>New Mexico2004</v>
@@ -19775,7 +19782,7 @@
         <v>27644</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>North Carolina2004</v>
@@ -19790,7 +19797,7 @@
         <v>30553</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>North Dakota2004</v>
@@ -19805,7 +19812,7 @@
         <v>31395</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>Ohio2004</v>
@@ -19820,7 +19827,7 @@
         <v>32478</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>Oklahoma2004</v>
@@ -19835,7 +19842,7 @@
         <v>29330</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>Oregon2004</v>
@@ -19850,7 +19857,7 @@
         <v>32103</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>Pennsylvania2004</v>
@@ -19865,7 +19872,7 @@
         <v>34897</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>Rhode Island2004</v>
@@ -19880,7 +19887,7 @@
         <v>36153</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>South Carolina2004</v>
@@ -19895,7 +19902,7 @@
         <v>28352</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>South Dakota2004</v>
@@ -19910,7 +19917,7 @@
         <v>31614</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>Tennessee2004</v>
@@ -19925,7 +19932,7 @@
         <v>31107</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>Texas2004</v>
@@ -19940,7 +19947,7 @@
         <v>32462</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>Vermont2004</v>
@@ -19955,7 +19962,7 @@
         <v>33327</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>Virginia2004</v>
@@ -19970,7 +19977,7 @@
         <v>38390</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>Washington2004</v>
@@ -19985,7 +19992,7 @@
         <v>35409</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>West Virginia2004</v>
@@ -20000,7 +20007,7 @@
         <v>27215</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>Wisconsin2004</v>
@@ -20015,7 +20022,7 @@
         <v>33565</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>Wyoming2004</v>
@@ -20051,15 +20058,15 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" style="68" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -20073,7 +20080,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2000</v>
       </c>
@@ -20093,7 +20100,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
@@ -20113,7 +20120,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
@@ -20127,7 +20134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2003</v>
       </c>
@@ -20148,7 +20155,7 @@
         <v>31634</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2004</v>
       </c>
@@ -20162,7 +20169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2005</v>
       </c>
@@ -20176,7 +20183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2006</v>
       </c>
@@ -20190,7 +20197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2007</v>
       </c>
@@ -20204,7 +20211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2008</v>
       </c>
@@ -20218,7 +20225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2009</v>
       </c>
@@ -20232,7 +20239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2010</v>
       </c>
@@ -20246,7 +20253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2011</v>
       </c>
@@ -20260,7 +20267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2012</v>
       </c>
@@ -20274,7 +20281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2013</v>
       </c>
@@ -20288,7 +20295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2014</v>
       </c>
@@ -20302,7 +20309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2015</v>
       </c>
@@ -20316,7 +20323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2016</v>
       </c>
@@ -20360,15 +20367,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="49" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="49" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>137</v>
       </c>
@@ -20377,7 +20384,7 @@
       </c>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48">
         <v>42370</v>
       </c>
@@ -20392,7 +20399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48">
         <v>42371</v>
       </c>
@@ -20401,7 +20408,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48">
         <v>42372</v>
       </c>
@@ -20416,7 +20423,7 @@
         <v>42389</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48">
         <v>42373</v>
       </c>
@@ -20425,7 +20432,7 @@
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48">
         <v>42374</v>
       </c>
@@ -20440,7 +20447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48">
         <v>42375</v>
       </c>
@@ -20449,7 +20456,7 @@
       </c>
       <c r="D7" s="50"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48">
         <v>42376</v>
       </c>
@@ -20464,7 +20471,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48">
         <v>42377</v>
       </c>
@@ -20474,7 +20481,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
         <v>42378</v>
       </c>
@@ -20489,7 +20496,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="48">
         <v>42379</v>
       </c>
@@ -20498,7 +20505,7 @@
       </c>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="48">
         <v>42380</v>
       </c>
@@ -20506,7 +20513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="48">
         <v>42381</v>
       </c>
@@ -20514,7 +20521,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="48">
         <v>42382</v>
       </c>
@@ -20522,7 +20529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="48">
         <v>42383</v>
       </c>
@@ -20530,7 +20537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="48">
         <v>42384</v>
       </c>
@@ -20538,7 +20545,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="48">
         <v>42385</v>
       </c>
@@ -20546,7 +20553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="48">
         <v>42386</v>
       </c>
@@ -20554,7 +20561,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="48">
         <v>42387</v>
       </c>
@@ -20562,7 +20569,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="48">
         <v>42388</v>
       </c>
@@ -20570,7 +20577,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="48">
         <v>42389</v>
       </c>
@@ -20596,19 +20603,19 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>188</v>
       </c>
@@ -20634,7 +20641,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>208</v>
       </c>
@@ -20667,7 +20674,7 @@
         <v>BOS</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>209</v>
       </c>
@@ -20700,7 +20707,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>210</v>
       </c>
@@ -20733,7 +20740,7 @@
         <v>BOS</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>211</v>
       </c>
@@ -20766,7 +20773,7 @@
         <v>CHI</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>212</v>
       </c>
@@ -20799,7 +20806,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>213</v>
       </c>
@@ -20832,7 +20839,7 @@
         <v>BOS</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>214</v>
       </c>
@@ -20865,7 +20872,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>215</v>
       </c>
@@ -20898,7 +20905,7 @@
         <v>CHI</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>216</v>
       </c>
@@ -20931,7 +20938,7 @@
         <v>CHI</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>217</v>
       </c>
@@ -20964,7 +20971,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>218</v>
       </c>
@@ -20997,7 +21004,7 @@
         <v>CHI</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>219</v>
       </c>
@@ -21030,7 +21037,7 @@
         <v>BOS</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>220</v>
       </c>
@@ -21063,7 +21070,7 @@
         <v>NYC</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>223</v>
       </c>

--- a/Excel-Homework-Exercises-ANSWERS.xlsx
+++ b/Excel-Homework-Exercises-ANSWERS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GodSpeed/Documents/CodeWork/excelAdvancedFormulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B311BF-B2EF-8040-803A-95586CD76B8A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99F3A28-D828-8645-943F-49E9F6E5DC5C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="709" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C3" s="53">
         <f ca="1">TODAY()</f>
-        <v>43379</v>
+        <v>43380</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="C4" s="54">
         <f ca="1">NOW()</f>
-        <v>43379.893438310188</v>
+        <v>43380.881669560185</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="D7" s="55">
         <f ca="1">DAY(C3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="55">
         <f ca="1">HOUR(C4)</f>
@@ -7610,11 +7610,11 @@
       </c>
       <c r="F7" s="55">
         <f ca="1">MINUTE(C4)</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G7" s="55">
         <f ca="1">SECOND(C4)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="C9" s="56">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -10060,7 +10060,7 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -20364,7 +20364,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20599,7 +20599,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/Excel-Homework-Exercises-ANSWERS.xlsx
+++ b/Excel-Homework-Exercises-ANSWERS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GodSpeed/Documents/CodeWork/excelAdvancedFormulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99F3A28-D828-8645-943F-49E9F6E5DC5C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF21B6-71E6-9648-AD65-D30E20DE74BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="709" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="709" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -2544,24 +2544,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2572,6 +2554,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C3" s="53">
         <f ca="1">TODAY()</f>
-        <v>43380</v>
+        <v>43382</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="C4" s="54">
         <f ca="1">NOW()</f>
-        <v>43380.881669560185</v>
+        <v>43382.10635775463</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7602,19 +7602,19 @@
       </c>
       <c r="D7" s="55">
         <f ca="1">DAY(C3)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="55">
         <f ca="1">HOUR(C4)</f>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F7" s="55">
         <f ca="1">MINUTE(C4)</f>
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G7" s="55">
         <f ca="1">SECOND(C4)</f>
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="C9" s="56">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="C11" s="53">
         <f ca="1">WORKDAY(C3,50)</f>
-        <v>43448</v>
+        <v>43452</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="C12" s="57">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8480,7 +8480,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8816,8 +8816,8 @@
   </sheetPr>
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8838,23 +8838,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="I1" s="89" t="s">
+      <c r="G1" s="82"/>
+      <c r="I1" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9280,27 +9280,27 @@
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:19" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
     </row>
     <row r="19" spans="1:19" ht="7.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="77"/>
@@ -9324,50 +9324,50 @@
       <c r="S19" s="77"/>
     </row>
     <row r="20" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
     </row>
     <row r="22" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="79" t="s">
@@ -9393,96 +9393,96 @@
       <c r="S22" s="80"/>
     </row>
     <row r="23" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
     </row>
     <row r="24" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
     </row>
     <row r="25" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
     </row>
     <row r="26" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
     </row>
     <row r="27" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="79" t="s">
@@ -9508,81 +9508,76 @@
       <c r="S27" s="80"/>
     </row>
     <row r="28" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
     </row>
     <row r="29" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
     </row>
     <row r="30" spans="1:19" s="78" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A26:S26"/>
     <mergeCell ref="A28:S28"/>
     <mergeCell ref="A29:S29"/>
     <mergeCell ref="A30:S30"/>
@@ -9591,6 +9586,11 @@
     <mergeCell ref="A23:S23"/>
     <mergeCell ref="A24:S24"/>
     <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A26:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20599,7 +20599,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
